--- a/Final Submission/Akash_Excel_Rectify1.xlsx
+++ b/Final Submission/Akash_Excel_Rectify1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajak\OneDrive\Desktop\Study\University\ALY6015 - Intermediate Analytics\Final Project\Presidential_Election_2016_Classification\Final Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775B940A-4EFC-4F96-BB89-AF974F484649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F811048-44B0-40CE-B128-73ED4CD9B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C569BE2-3862-244F-8092-AD46DE333EC0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4C569BE2-3862-244F-8092-AD46DE333EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>Coefficients:</t>
   </si>
@@ -228,12 +228,6 @@
   </si>
   <si>
     <t>adolm001</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>republican</t>
   </si>
   <si>
     <t>Std. Error</t>
@@ -257,8 +251,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -350,22 +344,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -685,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9A02D4-A437-3A4D-A5C7-8ACDEC391332}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -884,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4620C0-A0E1-4B71-A941-F782A61E3B3B}">
-  <dimension ref="B1:G24"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -901,19 +895,19 @@
     <row r="1" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -942,7 +936,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="12">
-        <v>1.8380000000000001E-2</v>
+        <v>-1.8380000000000001E-2</v>
       </c>
       <c r="D4" s="12">
         <v>1.519E-3</v>
@@ -962,7 +956,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="12">
-        <v>5.3699999999999998E-3</v>
+        <v>-5.3699999999999998E-3</v>
       </c>
       <c r="D5" s="12">
         <v>9.9979999999999991E-4</v>
@@ -982,7 +976,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="12">
-        <v>6.1630000000000003E-9</v>
+        <v>3.6162999999999998E-3</v>
       </c>
       <c r="D6" s="12">
         <v>1.5110000000000001E-8</v>
@@ -993,7 +987,9 @@
       <c r="F6" s="15">
         <v>0.68345999999999996</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
@@ -1032,7 +1028,7 @@
         <v>3.7789999999999997E-2</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -1060,7 +1056,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="12">
-        <v>-3.8289999999999999E-3</v>
+        <v>3.8289999999999999E-3</v>
       </c>
       <c r="D10" s="12">
         <v>5.2010000000000001E-4</v>
@@ -1080,7 +1076,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="12">
-        <v>-3.124E-3</v>
+        <v>3.124E-3</v>
       </c>
       <c r="D11" s="12">
         <v>4.8369999999999999E-4</v>
@@ -1120,7 +1116,7 @@
         <v>58</v>
       </c>
       <c r="C13" s="12">
-        <v>-1.2309999999999999E-6</v>
+        <v>2.1231000000000001E-5</v>
       </c>
       <c r="D13" s="12">
         <v>1.2810000000000001E-6</v>
@@ -1149,9 +1145,7 @@
       <c r="F14" s="14">
         <v>2.4899999999999999E-5</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
@@ -1190,7 +1184,7 @@
         <v>7.9899999999999994E-8</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -1210,82 +1204,42 @@
         <v>2E-16</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.80006140000000003</v>
+      </c>
+      <c r="D18" s="17">
+        <v>5.2560000000000002E-8</v>
+      </c>
+      <c r="E18" s="18">
+        <v>11.682</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2E-16</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="12">
-        <v>8.8780000000000004E-6</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1.0380000000000001E-6</v>
-      </c>
-      <c r="E18" s="13">
-        <v>8.5559999999999992</v>
-      </c>
-      <c r="F18" s="14">
-        <v>2E-16</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="12">
-        <v>-1.356E-7</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1.616E-8</v>
-      </c>
-      <c r="E19" s="13">
-        <v>-8.3879999999999999</v>
-      </c>
-      <c r="F19" s="14">
-        <v>2E-16</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="17">
-        <v>6.1399999999999997E-7</v>
-      </c>
-      <c r="D20" s="17">
-        <v>5.2560000000000002E-8</v>
-      </c>
-      <c r="E20" s="18">
-        <v>11.682</v>
-      </c>
-      <c r="F20" s="19">
-        <v>2E-16</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:7" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Final Submission/Akash_Excel_Rectify1.xlsx
+++ b/Final Submission/Akash_Excel_Rectify1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajak\OneDrive\Desktop\Study\University\ALY6015 - Intermediate Analytics\Final Project\Presidential_Election_2016_Classification\Final Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F811048-44B0-40CE-B128-73ED4CD9B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB5581-9F9F-47C2-BF3A-EDE7EDFE1AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4C569BE2-3862-244F-8092-AD46DE333EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>Coefficients:</t>
   </si>
@@ -243,18 +244,73 @@
   </si>
   <si>
     <t>Coefficients</t>
+  </si>
+  <si>
+    <t>emp_perc</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>unrate_perc</t>
+  </si>
+  <si>
+    <t>imig_perc</t>
+  </si>
+  <si>
+    <t>dmig_perc</t>
+  </si>
+  <si>
+    <t>popFemale_perc</t>
+  </si>
+  <si>
+    <t>AmInd_perc</t>
+  </si>
+  <si>
+    <t>Asian_perc</t>
+  </si>
+  <si>
+    <t>AfAm_perc</t>
+  </si>
+  <si>
+    <t>Age_0_14_perc</t>
+  </si>
+  <si>
+    <t>Age_45_54_perc</t>
+  </si>
+  <si>
+    <t>Age_74_84_perc</t>
+  </si>
+  <si>
+    <t>Age_85_perc</t>
+  </si>
+  <si>
+    <t>violent_crime</t>
+  </si>
+  <si>
+    <t>murder</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>robbery</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,6 +331,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,12 +389,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +450,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -679,7 +788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9A02D4-A437-3A4D-A5C7-8ACDEC391332}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -877,10 +988,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3974C56-FBD0-4373-B8AD-ABEC0BDD528A}">
+  <dimension ref="B1:D19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.17108324499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="22">
+        <v>-17.027239457</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="22">
+        <v>8.9210822749999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="22">
+        <v>-0.91970516599999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.68071555500000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.52196010999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1.0772731849999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.35915085099999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="22">
+        <v>-2.765462447</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.11991029</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="22">
+        <v>-1.103072729</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1.5337464730000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="22">
+        <v>5.9843409999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4620C0-A0E1-4B71-A941-F782A61E3B3B}">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
